--- a/results/mp/logistic/corona/confidence/126/desired-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,49 +40,55 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>avoid</t>
@@ -91,15 +97,15 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -109,9 +115,15 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -130,7 +142,7 @@
     <t>hand</t>
   </si>
   <si>
-    <t>best</t>
+    <t>special</t>
   </si>
   <si>
     <t>strong</t>
@@ -139,106 +151,112 @@
     <t>safe</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>create</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>team</t>
   </si>
   <si>
     <t>funny</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>boost</t>
   </si>
   <si>
     <t>kind</t>
@@ -247,31 +265,37 @@
     <t>alert</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>team</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>growth</t>
+    <t>increase</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -629,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,13 +722,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -748,13 +772,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8918918918918919</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>0.9666666666666667</v>
@@ -798,13 +822,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9473684210526315</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8493150684931506</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C6">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,16 +943,16 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.9375</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -969,16 +993,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.9333333333333333</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1019,16 +1043,16 @@
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.9302325581395349</v>
+        <v>0.9375</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1072,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7222222222222222</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.72</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.9190600522193212</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L11">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1148,13 +1172,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6521739130434783</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1166,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.9152542372881356</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L12">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M12">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,13 +1222,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1216,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.9090909090909091</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1272,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5873015873015873</v>
+        <v>0.6084656084656085</v>
       </c>
       <c r="C14">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D14">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.9014084507042254</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L14">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="M14">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,13 +1322,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4666666666666667</v>
+        <v>0.5503875968992248</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.8936170212765957</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1372,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4418604651162791</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C16">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.8928571428571429</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1390,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1398,13 +1422,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4117647058823529</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.8888888888888888</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,13 +1472,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3090909090909091</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,19 +1490,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.8888888888888888</v>
+        <v>0.890625</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1490,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1498,13 +1522,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3066666666666666</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1516,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.8888888888888888</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1540,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1548,13 +1572,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2542372881355932</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.8875</v>
+        <v>0.875</v>
       </c>
       <c r="L20">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M20">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1590,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1598,13 +1622,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2013422818791946</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1616,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.8793103448275862</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L21">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1640,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1648,13 +1672,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1055555555555556</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1666,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.8773584905660378</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L22">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M22">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1690,21 +1714,45 @@
         <v>0</v>
       </c>
       <c r="Q22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.05158730158730158</v>
+      </c>
+      <c r="C23">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>239</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.875</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L23">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="M23">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1716,21 +1764,45 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.002715283165244376</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>0.39</v>
+      </c>
+      <c r="F24">
+        <v>0.61</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>5142</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>0.8658536585365854</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L24">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1742,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.8235294117647058</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1768,21 +1840,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.8205128205128205</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1794,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.8</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1820,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.7936507936507936</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L28">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1846,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K29">
         <v>0.7916666666666666</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1872,21 +1944,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.7916666666666666</v>
+        <v>0.78</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1898,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.7857142857142857</v>
+        <v>0.775</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1924,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1950,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.775</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1976,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.7727272727272727</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2002,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.7714285714285715</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2028,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.7411764705882353</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L36">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M36">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2054,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.7391304347826086</v>
+        <v>0.75</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2080,21 +2152,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.7288135593220338</v>
+        <v>0.75</v>
       </c>
       <c r="L38">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2106,21 +2178,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.7154811715481172</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L39">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="M39">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2132,21 +2204,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.7142857142857143</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2158,12 +2230,12 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K41">
         <v>0.7083333333333334</v>
@@ -2189,7 +2261,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K42">
         <v>0.7037037037037037</v>
@@ -2215,7 +2287,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K43">
         <v>0.7021276595744681</v>
@@ -2241,16 +2313,16 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.696969696969697</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2262,21 +2334,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.6966292134831461</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L45">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2288,21 +2360,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.676923076923077</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L46">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="M46">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2314,21 +2386,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K47">
-        <v>0.6285714285714286</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L47">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M47">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2340,21 +2412,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.5925925925925926</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2366,21 +2438,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.5833333333333334</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2392,21 +2464,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.5714285714285714</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2418,21 +2490,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.5652173913043478</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2444,21 +2516,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.5416666666666666</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2470,21 +2542,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2496,21 +2568,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.4794520547945205</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L54">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2522,21 +2594,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.4642857142857143</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2548,21 +2620,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.4313725490196079</v>
+        <v>0.5</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2574,21 +2646,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>0.4</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2600,21 +2672,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>0.3205128205128205</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2626,21 +2698,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K59">
-        <v>0.288135593220339</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2652,7 +2724,163 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>42</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K60">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L60">
+        <v>24</v>
+      </c>
+      <c r="M60">
+        <v>24</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K61">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L61">
+        <v>13</v>
+      </c>
+      <c r="M61">
+        <v>13</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K62">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="L62">
+        <v>13</v>
+      </c>
+      <c r="M62">
+        <v>13</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K63">
+        <v>0.2542372881355932</v>
+      </c>
+      <c r="L63">
+        <v>15</v>
+      </c>
+      <c r="M63">
+        <v>15</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K64">
+        <v>0.234375</v>
+      </c>
+      <c r="L64">
+        <v>15</v>
+      </c>
+      <c r="M64">
+        <v>15</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K65">
+        <v>0.01083333333333333</v>
+      </c>
+      <c r="L65">
+        <v>13</v>
+      </c>
+      <c r="M65">
+        <v>13</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
